--- a/防音箱_ver2部品リスト.xlsx
+++ b/防音箱_ver2部品リスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuta\GitHub_local_desktop\SoundProofingBox_RZ420_mr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuta\GitHub_local_desktop\SoundProofingBox_RZ420_ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953A5E6-4544-40F9-B495-9C0AA3B89BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDE0E6-CEB8-4265-AEB1-E291250393B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>入力順</t>
   </si>
@@ -57,34 +57,10 @@
     <t>備考</t>
   </si>
   <si>
-    <t>100mmMDF穴あけ用</t>
-  </si>
-  <si>
-    <t>カッティングサービスを利用。金額不明。見積もり申請をサイトから提出</t>
-  </si>
-  <si>
     <t>https://jp.misumi-ec.com/vona2/detail/110311092599/?HissuCode=NFS5-2020-555&amp;PNSearch=NFS5-2020-555&amp;KWSearch=NFS5-2020-555.0&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
   </si>
   <si>
     <t>ブラケット</t>
-  </si>
-  <si>
-    <t>後入れバネナット(1パック)</t>
-  </si>
-  <si>
-    <t>PACK-HNTP5-5</t>
-  </si>
-  <si>
-    <t>https://jp.misumi-ec.com/vona2/detail/110302608410/?HissuCode=HNTP5-5&amp;PNSearch=HNTP5-5&amp;KWSearch=HNTP5-5&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
-  </si>
-  <si>
-    <t>超極低頭ボルトM5×20</t>
-  </si>
-  <si>
-    <t>E-GCBSTSR5-20</t>
-  </si>
-  <si>
-    <t>https://jp.misumi-ec.com/vona2/detail/110311091879/?HissuCode=E-GCBSTSR5-20&amp;PNSearch=E-GCBSTSR5-20&amp;KWSearch=E-GCBSTSR5-20&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
   </si>
   <si>
     <t>合計金額</t>
@@ -186,7 +162,42 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>https://jp.misumi-ec.com/vona2/detail/110300239070/?KWSearch=M5+%E5%85%AD%E8%A7%92%E7%A9%B4%E4%BB%98%E3%81%8D%E3%83%9C%E3%83%AB%E3%83%88&amp;searchFlow=results2products</t>
+    <t>https://jp.misumi-ec.com/vona2/detail/110300239070/?HissuCode=CB5-20&amp;PNSearch=CB5-20&amp;KWSearch=CB5-20&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>CB5-20</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>M5×20ねじ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>https://jp.misumi-ec.com/vona2/detail/110302608410/?HissuCode=HNTP5-5&amp;PNSearch=HNTP5-5&amp;KWSearch=HNTP5-5&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>50個必要</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>https://jp.misumi-ec.com/vona2/detail/110300239070/?HissuCode=CB5-8&amp;PNSearch=CB5-8&amp;KWSearch=CB5-8+&amp;searchFlow=results2products&amp;list=PageSearchResult</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>HNTP5-5</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>後入れバネナット</t>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
@@ -361,6 +372,7 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="游ゴシック"/>
@@ -648,11 +660,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5FCFCB-A651-4D79-83BF-7F7CEC999180}">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -920,7 +932,7 @@
     </row>
     <row r="2" spans="1:25" ht="20.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -967,16 +979,16 @@
     </row>
     <row r="3" spans="1:25" ht="18.75" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -984,14 +996,14 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>31</v>
+      <c r="G3" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="6">
         <v>660</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -1016,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1027,18 +1039,16 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>32</v>
+      <c r="G4" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="11">
         <v>990</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1046,7 +1056,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1063,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -1074,14 +1084,14 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>33</v>
+      <c r="G5" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="12">
         <v>946</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="1"/>
@@ -1091,7 +1101,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1108,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -1120,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="12">
         <v>572</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="1"/>
@@ -1151,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" s="13">
         <v>10</v>
@@ -1162,18 +1172,16 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>35</v>
+      <c r="G7" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="11">
         <v>770</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1190,34 +1198,34 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="19.5" thickBot="1">
+    <row r="8" spans="1:25" ht="18.75" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>15</v>
+      <c r="G8" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="H8" s="6">
-        <v>4676</v>
+        <v>3102</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1235,35 +1243,33 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="19.5" thickBot="1">
+    <row r="9" spans="1:25" ht="18.75" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>18</v>
+      <c r="G9" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="6">
-        <v>5929</v>
+        <v>1117</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1286,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1297,18 +1303,16 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>36</v>
+      <c r="G10" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="14">
         <v>8664</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1325,16 +1329,16 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="19.5" thickBot="1">
+    <row r="11" spans="1:25" ht="18.75" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>30</v>
+      <c r="D11" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1342,18 +1346,16 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>37</v>
+      <c r="G11" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="6">
         <v>1822</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1376,29 +1378,27 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>41</v>
+      <c r="G12" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="H12" s="17">
         <v>605</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1427,9 +1427,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="20"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2034,11 +2032,11 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H34" s="38">
         <f>SUM(H3:H31)</f>
-        <v>25634</v>
+        <v>19248</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -28106,6 +28104,7 @@
     <hyperlink ref="G7" r:id="rId6" xr:uid="{B844413A-04BE-4F78-9482-AA5C2F07A21B}"/>
     <hyperlink ref="G10" r:id="rId7" xr:uid="{CBFAF18A-EECF-41D9-9CE4-23D53BDDB087}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{DD551EF9-6921-4038-9C78-04B001ABE8FF}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{5DC4CF98-CB59-4331-85D2-938B064CA1B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/防音箱_ver2部品リスト.xlsx
+++ b/防音箱_ver2部品リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuta\GitHub_local_desktop\SoundProofingBox_RZ420_ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDE0E6-CEB8-4265-AEB1-E291250393B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7512C4FC-50DE-4D17-AFBB-C6659CB197E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1210,7 +1210,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="6">
-        <v>3102</v>
+        <v>3619</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>30</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H34" s="38">
         <f>SUM(H3:H31)</f>
-        <v>19248</v>
+        <v>19765</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
